--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43430,6 +43430,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43502,6 +43502,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,43 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,78 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,80 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43938,6 +43938,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43975,6 +43975,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44012,6 +44012,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44049,6 +44049,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44084,6 +44084,78 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44156,6 +44156,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44193,6 +44193,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1801"/>
+  <dimension ref="A1:I1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64425,6 +64425,41 @@
         </is>
       </c>
     </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1802"/>
+  <dimension ref="A1:I1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64460,6 +64460,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1803" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1803"/>
+  <dimension ref="A1:I1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64497,6 +64497,43 @@
         </is>
       </c>
     </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1804" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1804"/>
+  <dimension ref="A1:I1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64534,6 +64534,41 @@
         </is>
       </c>
     </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1805"/>
+  <dimension ref="A1:I1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64569,6 +64569,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1806" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1806"/>
+  <dimension ref="A1:I1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64606,6 +64606,41 @@
         </is>
       </c>
     </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1807"/>
+  <dimension ref="A1:I1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64641,6 +64641,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1808"/>
+  <dimension ref="A1:I1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64676,6 +64676,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>76500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1809"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64711,6 +64711,41 @@
         <v>76500</v>
       </c>
     </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1810" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1810"/>
+  <dimension ref="A1:I1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64746,6 +64746,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1811" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1811"/>
+  <dimension ref="A1:I1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64781,6 +64781,41 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1812"/>
+  <dimension ref="A1:I1813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64816,6 +64816,43 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1813" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1813"/>
+  <dimension ref="A1:I1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64853,6 +64853,43 @@
         </is>
       </c>
     </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1814" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1814"/>
+  <dimension ref="A1:I1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64890,6 +64890,41 @@
         </is>
       </c>
     </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>56700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9946.xlsx
+++ b/data/9946.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1815"/>
+  <dimension ref="A1:I1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64925,6 +64925,41 @@
         <v>56700</v>
       </c>
     </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
